--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3587785.632065502</v>
+        <v>3582045.517357287</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359936</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.07113985546249</v>
+        <v>313.6661220070736</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>130.4720012643976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174324</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100833</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>49.51733968949789</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>175.576803356088</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.3842648627972</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>197.4329099263301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>107.6752805263934</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -946,19 +946,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>118.0867093812782</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.75921992324395</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>167.6682923486904</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>177.7048348993197</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>28.11374845278275</v>
       </c>
       <c r="E10" t="n">
-        <v>63.29996590066617</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206837</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>159.648513680124</v>
       </c>
       <c r="C13" t="n">
-        <v>22.79602437688198</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>61.83721437613778</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.75000975614348</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>136.9968647819697</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.35445197474011</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.30142266586431</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>143.157570894838</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>36.38253456427864</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>74.57734589581224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2970,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.85050183982874</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>263.7279958448802</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.849827050594249</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>248.9516440364296</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,16 +3717,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>50.7109341869766</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>184.9985343643347</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>42.01201317445332</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>218.8547730420439</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>61.32615370389225</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.649251301485</v>
+        <v>371.088993636715</v>
       </c>
       <c r="C2" t="n">
-        <v>888.6867343610736</v>
+        <v>371.088993636715</v>
       </c>
       <c r="D2" t="n">
-        <v>530.4210357543232</v>
+        <v>371.088993636715</v>
       </c>
       <c r="E2" t="n">
-        <v>530.4210357543232</v>
+        <v>371.088993636715</v>
       </c>
       <c r="F2" t="n">
-        <v>523.4755350051197</v>
+        <v>364.1434928875116</v>
       </c>
       <c r="G2" t="n">
-        <v>509.2622624238444</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="H2" t="n">
-        <v>179.0989264807681</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015909</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060712</v>
+        <v>397.0764468060711</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927196</v>
+        <v>769.5640925927195</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689013</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811681</v>
       </c>
       <c r="O2" t="n">
         <v>1978.679112633673</v>
@@ -4354,28 +4354,28 @@
         <v>2365.451310684989</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684989</v>
+        <v>2292.21416780444</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684989</v>
+        <v>2292.21416780444</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684989</v>
+        <v>2072.310601330789</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.451310684989</v>
+        <v>1818.525626487291</v>
       </c>
       <c r="V2" t="n">
-        <v>2034.388423341419</v>
+        <v>1487.462739143721</v>
       </c>
       <c r="W2" t="n">
-        <v>2034.388423341419</v>
+        <v>1134.694083873607</v>
       </c>
       <c r="X2" t="n">
-        <v>2034.388423341419</v>
+        <v>761.2283256125268</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.249091365607</v>
+        <v>371.088993636715</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>881.9161671494202</v>
+        <v>814.5336845195542</v>
       </c>
       <c r="C3" t="n">
-        <v>707.4631378682932</v>
+        <v>640.0806552384272</v>
       </c>
       <c r="D3" t="n">
-        <v>558.5287282070419</v>
+        <v>491.146245577176</v>
       </c>
       <c r="E3" t="n">
-        <v>399.2912732015865</v>
+        <v>331.9087905717205</v>
       </c>
       <c r="F3" t="n">
-        <v>252.7567152284714</v>
+        <v>185.3742325986054</v>
       </c>
       <c r="G3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592118</v>
+        <v>278.0105538592116</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022446</v>
+        <v>649.6216244022443</v>
       </c>
       <c r="M3" t="n">
         <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1649.445493246981</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>2053.415090336853</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.78188369591</v>
+        <v>2360.633238912861</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.451310684989</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885991</v>
+        <v>2365.451310684989</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926782</v>
+        <v>2315.433795847112</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087513</v>
+        <v>2115.930113007843</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549723</v>
+        <v>1887.750285470053</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317981</v>
+        <v>1652.59817723831</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589779</v>
+        <v>1398.360820510109</v>
       </c>
       <c r="X3" t="n">
-        <v>1050.131504169488</v>
+        <v>1190.509320304576</v>
       </c>
       <c r="Y3" t="n">
-        <v>1050.131504169488</v>
+        <v>982.7490215396222</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5481446494721</v>
+        <v>614.839075254619</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5481446494721</v>
+        <v>614.839075254619</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5481446494721</v>
+        <v>464.7224358422833</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5481446494721</v>
+        <v>316.8093422598902</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5481446494721</v>
+        <v>169.9193947619798</v>
       </c>
       <c r="G4" t="n">
-        <v>187.5481446494721</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5481446494721</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369977</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181603</v>
+        <v>88.80529410181595</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365661</v>
       </c>
       <c r="M4" t="n">
-        <v>322.35411989506</v>
+        <v>322.3541198950597</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896741</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885933</v>
+        <v>551.384871688593</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.839075254619</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.839075254619</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.839075254619</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546194</v>
+        <v>614.839075254619</v>
       </c>
       <c r="T4" t="n">
-        <v>386.9753263932399</v>
+        <v>614.839075254619</v>
       </c>
       <c r="U4" t="n">
-        <v>386.9753263932399</v>
+        <v>614.839075254619</v>
       </c>
       <c r="V4" t="n">
-        <v>386.9753263932399</v>
+        <v>614.839075254619</v>
       </c>
       <c r="W4" t="n">
-        <v>386.9753263932399</v>
+        <v>614.839075254619</v>
       </c>
       <c r="X4" t="n">
-        <v>386.9753263932399</v>
+        <v>614.839075254619</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5481446494721</v>
+        <v>614.839075254619</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1099.346874905661</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2522.840897123182</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2522.840897123182</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2522.840897123182</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2522.840897123182</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969783</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969783</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,16 +4649,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.98259790444925</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>263.631062734689</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1421.217123115521</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1052.254606175109</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>1052.254606175109</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>233.4428150520005</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1421.217123115521</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>321.2872383163224</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5029,49 +5029,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008795</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,7 +5150,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5159,7 +5159,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.3103861854969</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157366</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X13" t="n">
-        <v>908.9588510157366</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.9588510157366</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1729.091615892343</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2707.641918722172</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5357,10 +5357,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
         <v>794.2006632320242</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>619.8559841413803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>471.9428905589872</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>471.9428905589872</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>304.2400539337061</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0228671515639</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>619.8559841413803</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>619.8559841413803</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5503,7 +5503,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>465.8764929059537</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>296.9403099780468</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8236705657111</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>146.8236705657111</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>146.8236705657111</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8236705657111</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>146.8236705657111</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V19" t="n">
-        <v>1385.724257814702</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W19" t="n">
-        <v>1096.307087777741</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X19" t="n">
-        <v>868.3175368797235</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y19" t="n">
-        <v>647.5249577361934</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.5554641779659</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5940,22 +5940,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1385.724257814702</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1096.307087777741</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>868.3175368797235</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>868.3175368797235</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3044.228895027647</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.0874507179534</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>552.1512677900465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>402.0346283777108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>402.0346283777108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.142636483171</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.72546644621</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X25" t="n">
-        <v>902.7359155481931</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y25" t="n">
-        <v>902.7359155481931</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2903.481887689699</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>578.4172407837245</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4810578558177</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="D28" t="n">
-        <v>409.4810578558177</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
         <v>241.7782212305366</v>
@@ -6417,19 +6417,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>874.540472347267</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X28" t="n">
-        <v>799.2098199272547</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y28" t="n">
-        <v>578.4172407837245</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,16 +6572,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3525.992355251139</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="C31" t="n">
-        <v>3525.992355251139</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D31" t="n">
-        <v>3525.992355251139</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E31" t="n">
-        <v>3378.079261668745</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>3231.189314170835</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545554</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4711.536063995652</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4519.850179822478</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4298.083564392004</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>4298.083564392004</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V31" t="n">
-        <v>4043.399076186117</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W31" t="n">
-        <v>3753.981906149156</v>
+        <v>1435.267062903988</v>
       </c>
       <c r="X31" t="n">
-        <v>3525.992355251139</v>
+        <v>1207.277512005971</v>
       </c>
       <c r="Y31" t="n">
-        <v>3525.992355251139</v>
+        <v>986.4849328624409</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3476.428084934883</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C34" t="n">
-        <v>3476.428084934883</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D34" t="n">
-        <v>3476.428084934883</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E34" t="n">
-        <v>3328.51499135249</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.51499135249</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4686.352753004931</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4464.586137574457</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>4175.483270700101</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>4175.483270700101</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>3886.06610066314</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>3658.076549765123</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>3658.076549765123</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,7 +6922,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6934,55 +6934,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.715908442899</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>509.735988140349</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C37" t="n">
-        <v>340.7998052124422</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D37" t="n">
-        <v>340.7998052124422</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E37" t="n">
-        <v>192.886711630049</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F37" t="n">
-        <v>192.886711630049</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7128,19 +7128,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1201.59420215108</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>912.1770321141189</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>912.1770321141189</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>691.3844529705888</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C40" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V40" t="n">
-        <v>1112.734476538797</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W40" t="n">
-        <v>823.3173065018362</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X40" t="n">
-        <v>595.3277556038189</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y40" t="n">
-        <v>374.5351764602888</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3214.275877673658</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C43" t="n">
-        <v>3214.275877673658</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D43" t="n">
-        <v>3064.159238261322</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E43" t="n">
-        <v>3064.159238261322</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>2917.269290763412</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>4275.469953688879</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>3986.367086814523</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>3731.682598608636</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>3442.265428571675</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>3214.275877673658</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>3214.275877673658</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,25 +7648,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M44" t="n">
-        <v>2536.15366264131</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N44" t="n">
-        <v>3082.932479700092</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996753</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7842,16 +7842,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1102.012032582316</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>812.5948625453557</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>812.5948625453557</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>591.8022834018255</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262989</v>
+        <v>64.58008902262995</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>329.9975710941071</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.7324844864031</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8698,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>342.3170758598129</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>342.3170758598132</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>411.0304280899003</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>198.7154374299954</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>161.8544041422892</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9886,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>354.4836849406614</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>96.13798426930725</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10588,28 +10588,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>148.4180109385399</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7011105564207</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>411.0304280899003</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>282.7041781993167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>20.18346650181329</v>
       </c>
       <c r="C13" t="n">
-        <v>144.4507967217459</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>34.51520603370031</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>45.60241065369461</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>52.77216054947215</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.4775282071972</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.11962535706694</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>46.61145443660385</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0385134586526</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>151.1323094932249</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.08165083021859</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>22.79500249171076</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>187.9191982808476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>3.185999287398374</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>201.4267091368514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>40.71112102470249</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>137.819967007484</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6941762341253082</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>190.8114896199357</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679482.7581088361</v>
+        <v>679482.758108836</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679482.758108836</v>
+        <v>679482.7581088361</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679482.758108836</v>
+        <v>679482.7581088361</v>
       </c>
     </row>
     <row r="14">
@@ -26316,7 +26316,7 @@
         <v>759463.6371244615</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
@@ -26328,19 +26328,19 @@
         <v>734601.3057409192</v>
       </c>
       <c r="G2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="H2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="I2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="J2" t="n">
         <v>734601.3057409191</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="L2" t="n">
         <v>734601.305740919</v>
@@ -26349,13 +26349,13 @@
         <v>734601.3057409191</v>
       </c>
       <c r="N2" t="n">
-        <v>734601.3057409194</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="O2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="P2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409193</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106474</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446942</v>
+        <v>91792.63957446975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832158</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220087</v>
+        <v>21342.09858220093</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499378</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499378</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499383</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="J4" t="n">
-        <v>25090.72367499383</v>
-      </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
+        <v>25090.72367499375</v>
+      </c>
+      <c r="N4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="N4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="O4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
         <v>25090.72367499382</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140122</v>
+        <v>76261.1061314012</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37133.10818356847</v>
+        <v>-37133.10818356814</v>
       </c>
       <c r="C6" t="n">
-        <v>383747.4135588522</v>
+        <v>383747.4135588513</v>
       </c>
       <c r="D6" t="n">
         <v>475540.0531333212</v>
       </c>
       <c r="E6" t="n">
-        <v>-114250.350181195</v>
+        <v>-114922.3050834529</v>
       </c>
       <c r="F6" t="n">
-        <v>613127.0638122117</v>
+        <v>612455.1089099539</v>
       </c>
       <c r="G6" t="n">
-        <v>613127.0638122116</v>
+        <v>612455.108909954</v>
       </c>
       <c r="H6" t="n">
-        <v>613127.0638122115</v>
+        <v>612455.1089099539</v>
       </c>
       <c r="I6" t="n">
-        <v>613127.0638122117</v>
+        <v>612455.108909954</v>
       </c>
       <c r="J6" t="n">
-        <v>458400.5281289956</v>
+        <v>457728.5732267378</v>
       </c>
       <c r="K6" t="n">
-        <v>591784.9652300107</v>
+        <v>591113.0103277528</v>
       </c>
       <c r="L6" t="n">
-        <v>613127.0638122115</v>
+        <v>612455.1089099536</v>
       </c>
       <c r="M6" t="n">
-        <v>483484.7489732669</v>
+        <v>482812.7940710091</v>
       </c>
       <c r="N6" t="n">
-        <v>613127.063812212</v>
+        <v>612455.108909954</v>
       </c>
       <c r="O6" t="n">
-        <v>613127.0638122115</v>
+        <v>612455.108909954</v>
       </c>
       <c r="P6" t="n">
-        <v>613127.0638122115</v>
+        <v>612455.108909954</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435492</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435492</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353718</v>
+        <v>71.38374637353746</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330846</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712475</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330846</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712471</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330846</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>100.4050178483889</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>32.52271953148187</v>
+        <v>162.9947207958795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174317</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356732</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100837</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>109.9258856401189</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>30.19618184738943</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>46.05426218479612</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848779</v>
+        <v>54.30080173848783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731841</v>
+        <v>39.90169565731846</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27590,7 +27590,7 @@
         <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
         <v>286.28889559408</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.15174342576469</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>257.5976112446141</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>98.36161097637958</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>139.4876011753839</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>214.2620777235714</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>236.0793351214753</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27906,10 +27906,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>120.5017245654296</v>
       </c>
       <c r="E10" t="n">
-        <v>83.133996745903</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672559</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212159</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452641</v>
+        <v>47.48116877452637</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676339</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015734</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787777</v>
+        <v>194.3553476787775</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589796</v>
+        <v>216.2577725589794</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.757049409524</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.510350181155</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579887</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709653</v>
+        <v>132.9986917709651</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940651</v>
+        <v>77.36434648940644</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978849</v>
+        <v>28.06503166978846</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216634</v>
+        <v>5.391318755216629</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380478</v>
+        <v>0.09852781277380468</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540499</v>
+        <v>0.6589628421540493</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014108</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784778</v>
+        <v>22.68797504784775</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440368</v>
+        <v>62.25753764403674</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.408048068358</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966501</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247345</v>
+        <v>166.9661552247343</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302323</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382926</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723816</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338364</v>
+        <v>84.11602876338357</v>
       </c>
       <c r="R3" t="n">
-        <v>40.9134999716348</v>
+        <v>40.91349997163476</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422104</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394549</v>
+        <v>2.656082683945487</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276646</v>
+        <v>0.04335281856276642</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654171</v>
+        <v>0.5524523108654166</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967076</v>
+        <v>4.911803272967071</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584362</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818495</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509117</v>
+        <v>64.18491393509112</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448211</v>
+        <v>82.13459174448204</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502169</v>
+        <v>86.5994108750216</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361429</v>
+        <v>84.54027044361422</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395917</v>
+        <v>78.0866229939591</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523046</v>
+        <v>66.81659585230454</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437597</v>
+        <v>46.26034759437593</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400318</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263674</v>
+        <v>9.627737090263665</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.36047805551587</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084097</v>
+        <v>0.03013376241084094</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302151</v>
+        <v>92.58102251302141</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277576</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592407</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245391</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249175</v>
+        <v>427.6909102249173</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222136</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742018</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564203</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065777</v>
+        <v>233.0318461065776</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.364717720235</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527159</v>
       </c>
       <c r="N3" t="n">
-        <v>370.0411115410063</v>
+        <v>519.3859147904525</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705779</v>
+        <v>408.0500980705777</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>310.3213621979885</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>4.866739163765147</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920832</v>
+        <v>41.91542210920827</v>
       </c>
       <c r="L4" t="n">
         <v>109.7246170047982</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368622</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228428</v>
       </c>
       <c r="O4" t="n">
         <v>102.6717509079988</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719809</v>
+        <v>64.09515511719803</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
@@ -35418,22 +35418,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>894.6189112727244</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>797.9071902521454</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35895,19 +35895,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>963.3322635028118</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36129,13 +36129,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>737.6365532602222</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>714.1562395552007</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36606,19 +36606,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>862.5366858288805</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,10 +36846,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>604.1909851575264</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493445</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37308,28 +37308,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>700.7198463514513</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>684.4630967757926</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37791,19 +37791,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>963.3322635028118</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>790.7571790875359</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3582045.517357287</v>
+        <v>3585451.008481737</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359936</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>299.5949821516094</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>313.6661220070736</v>
+        <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174324</v>
+        <v>72.50477145174332</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36.60276538234826</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100842</v>
       </c>
       <c r="S3" t="n">
-        <v>49.51733968949789</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>121.3842648627972</v>
+        <v>121.3842648627966</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>118.0867093812782</v>
+        <v>137.0779744069684</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>177.7048348993197</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>138.3295234829028</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.11374845278275</v>
+        <v>28.11374845278241</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1314,7 +1314,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206837</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.648513680124</v>
+        <v>25.68901288442385</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>264.9673449508438</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>136.9968647819697</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>233.4396776561401</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>143.157570894838</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>199.3654827743555</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>36.38253456427864</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>268.3340815447023</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>158.9130303219985</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>263.7279958448802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>6.38006817584762</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>46.28252453376994</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442779</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9985343643347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881766</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.01201317445332</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796243</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,7 +4073,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247745</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.088993636715</v>
+        <v>68.46779954417846</v>
       </c>
       <c r="C2" t="n">
-        <v>371.088993636715</v>
+        <v>68.46779954417846</v>
       </c>
       <c r="D2" t="n">
-        <v>371.088993636715</v>
+        <v>68.46779954417846</v>
       </c>
       <c r="E2" t="n">
-        <v>371.088993636715</v>
+        <v>68.46779954417846</v>
       </c>
       <c r="F2" t="n">
-        <v>364.1434928875116</v>
+        <v>61.52229879497499</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015908</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060711</v>
+        <v>397.0764468060706</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927195</v>
+        <v>769.5640925927186</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689013</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811681</v>
+        <v>1624.04891581168</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633673</v>
+        <v>1978.679112633671</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054131</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.21416780444</v>
+        <v>2292.214167804438</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.21416780444</v>
+        <v>2292.214167804438</v>
       </c>
       <c r="T2" t="n">
-        <v>2072.310601330789</v>
+        <v>2072.310601330787</v>
       </c>
       <c r="U2" t="n">
-        <v>1818.525626487291</v>
+        <v>1818.525626487289</v>
       </c>
       <c r="V2" t="n">
-        <v>1487.462739143721</v>
+        <v>1487.462739143719</v>
       </c>
       <c r="W2" t="n">
-        <v>1134.694083873607</v>
+        <v>1134.694083873605</v>
       </c>
       <c r="X2" t="n">
-        <v>761.2283256125268</v>
+        <v>761.2283256125249</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.088993636715</v>
+        <v>371.0889936367132</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>814.5336845195542</v>
+        <v>851.5061748047544</v>
       </c>
       <c r="C3" t="n">
-        <v>640.0806552384272</v>
+        <v>677.0531455236274</v>
       </c>
       <c r="D3" t="n">
-        <v>491.146245577176</v>
+        <v>528.1187358623762</v>
       </c>
       <c r="E3" t="n">
-        <v>331.9087905717205</v>
+        <v>368.8812808569207</v>
       </c>
       <c r="F3" t="n">
-        <v>185.3742325986054</v>
+        <v>222.3467228838057</v>
       </c>
       <c r="G3" t="n">
-        <v>47.30902621369977</v>
+        <v>84.2815164989</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369977</v>
+        <v>84.2815164989</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592116</v>
+        <v>278.0105538592115</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022443</v>
+        <v>649.621624402244</v>
       </c>
       <c r="M3" t="n">
         <v>1135.253437604433</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.445493246981</v>
+        <v>1649.44549324698</v>
       </c>
       <c r="O3" t="n">
-        <v>2053.415090336853</v>
+        <v>2053.415090336852</v>
       </c>
       <c r="P3" t="n">
-        <v>2360.633238912861</v>
+        <v>2360.63323891286</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684987</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684989</v>
+        <v>2305.608548885989</v>
       </c>
       <c r="S3" t="n">
-        <v>2315.433795847112</v>
+        <v>2144.554785926779</v>
       </c>
       <c r="T3" t="n">
-        <v>2115.930113007843</v>
+        <v>1945.051103087511</v>
       </c>
       <c r="U3" t="n">
-        <v>1887.750285470053</v>
+        <v>1716.871275549721</v>
       </c>
       <c r="V3" t="n">
-        <v>1652.59817723831</v>
+        <v>1481.719167317978</v>
       </c>
       <c r="W3" t="n">
-        <v>1398.360820510109</v>
+        <v>1227.481810589776</v>
       </c>
       <c r="X3" t="n">
-        <v>1190.509320304576</v>
+        <v>1227.481810589776</v>
       </c>
       <c r="Y3" t="n">
-        <v>982.7490215396222</v>
+        <v>1019.721511824823</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="C4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422833</v>
+        <v>464.7224358422826</v>
       </c>
       <c r="E4" t="n">
-        <v>316.8093422598902</v>
+        <v>316.8093422598895</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9193947619798</v>
+        <v>169.9193947619791</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369977</v>
+        <v>47.30902621369974</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181595</v>
+        <v>88.80529410181585</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365661</v>
+        <v>197.432664936566</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950597</v>
+        <v>322.3541198950595</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896741</v>
+        <v>449.7398382896737</v>
       </c>
       <c r="O4" t="n">
-        <v>551.384871688593</v>
+        <v>551.3848716885924</v>
       </c>
       <c r="P4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="R4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="S4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="T4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="U4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="V4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="W4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="X4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.839075254619</v>
+        <v>614.8390752546184</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2522.840897123182</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="U5" t="n">
-        <v>2522.840897123182</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V5" t="n">
-        <v>2522.840897123182</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>2522.840897123182</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,25 +4670,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D8" t="n">
-        <v>240.388315801204</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E8" t="n">
-        <v>240.388315801204</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="F8" t="n">
-        <v>233.4428150520005</v>
+        <v>207.5931772786451</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>193.669773217236</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>193.669773217236</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>699.7312584965529</v>
+        <v>699.731258496553</v>
       </c>
       <c r="E10" t="n">
-        <v>551.8181649141598</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162494</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467752</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4972173763014</v>
+        <v>875.4238276939707</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>874.540472347267</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X13" t="n">
-        <v>646.5509214492497</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.7583423057196</v>
+        <v>901.3723255570251</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5281,19 +5281,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>863.3959868301845</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,22 +5515,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>289.6715157207268</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>944.3948478560262</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1395.429061104435</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2373.979363934263</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,25 +5594,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,22 +5688,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1728.132337365293</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1728.132337365293</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U19" t="n">
         <v>1439.029470490936</v>
@@ -5743,34 +5743,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6068,28 +6068,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,31 +6162,31 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1721.909401897749</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1500.142786467275</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U25" t="n">
-        <v>1211.039919592919</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V25" t="n">
-        <v>956.3554313870318</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>666.9382613500712</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X25" t="n">
         <v>666.9382613500712</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>278.5282561439494</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C28" t="n">
-        <v>278.5282561439494</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D28" t="n">
-        <v>278.5282561439494</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>278.5282561439494</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
         <v>241.7782212305366</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157366</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X28" t="n">
-        <v>680.9693001177193</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y28" t="n">
-        <v>460.1767209741892</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O29" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>804.8364680322012</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="C31" t="n">
-        <v>804.8364680322012</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="D31" t="n">
-        <v>654.7198286198654</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>500.2948715744226</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>353.4049240765122</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
         <v>192.8867116300491</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W31" t="n">
-        <v>1435.267062903988</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X31" t="n">
-        <v>1207.277512005971</v>
+        <v>902.7359155481925</v>
       </c>
       <c r="Y31" t="n">
-        <v>986.4849328624409</v>
+        <v>681.9433364046623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1002.806306216376</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.840519464784</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.9417306852383</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C34" t="n">
-        <v>102.0055477573314</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D34" t="n">
-        <v>102.0055477573314</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>102.0055477573314</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>102.0055477573314</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1611.828520656344</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>1322.411350619383</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>1275.661325837798</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.5901955154781</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6976,7 +6976,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,46 +7174,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1682.725100522032</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3987.344609994334</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4382.118976351512</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,28 +7253,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>998.7893082582084</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>811.9221018295875</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>591.1295226860574</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3987.344609994334</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4382.118976351512</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,28 +7490,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154781</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7642,34 +7642,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7727,28 +7727,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262995</v>
+        <v>64.58008902263002</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.7324844864031</v>
+        <v>60.73248448640228</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106152</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>5.284192235663625</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,16 +9172,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448442</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>23.80814351663784</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>23.80814351663784</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.18346650181329</v>
+        <v>154.1429672975135</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>21.55565338574723</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.77216054947215</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>52.77216054947277</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>46.61145443660385</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>52.77216054947255</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>109.0385134586526</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>18.18891679188874</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.112777937029762</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>22.79500249171076</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>159.6457400831806</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>179.4271308552672</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>91.26811680410418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>40.71112102470249</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.819967007484</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>16.14213605696671</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057605</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679482.7581088361</v>
+        <v>679482.758108836</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679482.7581088361</v>
+        <v>679482.758108836</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679482.758108836</v>
+        <v>679482.7581088361</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="F2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="G2" t="n">
+        <v>734601.3057409193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>734601.3057409194</v>
+      </c>
+      <c r="I2" t="n">
+        <v>734601.3057409194</v>
+      </c>
+      <c r="J2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>734601.3057409194</v>
+      </c>
+      <c r="L2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="G2" t="n">
-        <v>734601.3057409192</v>
-      </c>
-      <c r="H2" t="n">
-        <v>734601.3057409192</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>734601.3057409193</v>
       </c>
-      <c r="J2" t="n">
-        <v>734601.3057409191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>734601.3057409191</v>
-      </c>
-      <c r="L2" t="n">
-        <v>734601.305740919</v>
-      </c>
-      <c r="M2" t="n">
-        <v>734601.3057409191</v>
-      </c>
       <c r="N2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="O2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="P2" t="n">
         <v>734601.3057409193</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106474</v>
+        <v>493391.6844106469</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446975</v>
+        <v>91792.63957447022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832158</v>
+        <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220093</v>
+        <v>21342.09858220105</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.954765981</v>
+        <v>226943.9547659812</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="F4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499375</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499384</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.1061314012</v>
+        <v>76261.10613140117</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,7 +26481,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37133.10818356814</v>
+        <v>-37133.10818356767</v>
       </c>
       <c r="C6" t="n">
-        <v>383747.4135588513</v>
+        <v>383747.4135588509</v>
       </c>
       <c r="D6" t="n">
-        <v>475540.0531333212</v>
+        <v>475540.0531333215</v>
       </c>
       <c r="E6" t="n">
-        <v>-114922.3050834529</v>
+        <v>-114317.5456714208</v>
       </c>
       <c r="F6" t="n">
-        <v>612455.1089099539</v>
+        <v>613059.8683219858</v>
       </c>
       <c r="G6" t="n">
-        <v>612455.108909954</v>
+        <v>613059.8683219861</v>
       </c>
       <c r="H6" t="n">
-        <v>612455.1089099539</v>
+        <v>613059.8683219862</v>
       </c>
       <c r="I6" t="n">
-        <v>612455.108909954</v>
+        <v>613059.8683219862</v>
       </c>
       <c r="J6" t="n">
-        <v>457728.5732267378</v>
+        <v>458333.3326387702</v>
       </c>
       <c r="K6" t="n">
-        <v>591113.0103277528</v>
+        <v>591717.7697397851</v>
       </c>
       <c r="L6" t="n">
-        <v>612455.1089099536</v>
+        <v>613059.8683219859</v>
       </c>
       <c r="M6" t="n">
-        <v>482812.7940710091</v>
+        <v>483417.5534830412</v>
       </c>
       <c r="N6" t="n">
-        <v>612455.108909954</v>
+        <v>613059.8683219863</v>
       </c>
       <c r="O6" t="n">
-        <v>612455.108909954</v>
+        <v>613059.8683219862</v>
       </c>
       <c r="P6" t="n">
-        <v>612455.108909954</v>
+        <v>613059.8683219861</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435492</v>
+        <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435492</v>
+        <v>306.3599178435489</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353746</v>
+        <v>71.3837463735378</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330846</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330846</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.3628276712467</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330846</v>
+        <v>82.92444508330891</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>83.13885951187115</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>100.4050178483889</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356732</v>
+        <v>30.10589242121909</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100837</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>109.9258856401189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.05426218479612</v>
+        <v>46.05426218479674</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848783</v>
+        <v>54.30080173848787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731846</v>
+        <v>39.90169565731851</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>98.36161097637958</v>
+        <v>79.37034595068943</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0793351214753</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>13.60179276195842</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>120.5017245654296</v>
+        <v>120.5017245654299</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672559</v>
+        <v>1.231597659672557</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212159</v>
+        <v>12.61309953212158</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452637</v>
+        <v>47.48116877452632</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676339</v>
+        <v>104.5303118676338</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015734</v>
+        <v>156.6638408015732</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787775</v>
+        <v>194.3553476787773</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589794</v>
+        <v>216.2577725589791</v>
       </c>
       <c r="N2" t="n">
-        <v>219.757049409524</v>
+        <v>219.7570494095238</v>
       </c>
       <c r="O2" t="n">
-        <v>207.510350181155</v>
+        <v>207.5103501811548</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579887</v>
+        <v>177.1052829579885</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709651</v>
+        <v>132.998691770965</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940644</v>
+        <v>77.36434648940636</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978846</v>
+        <v>28.06503166978843</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216629</v>
+        <v>5.391318755216623</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380468</v>
+        <v>0.09852781277380457</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540493</v>
+        <v>0.6589628421540485</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014108</v>
+        <v>6.364193765014101</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784775</v>
+        <v>22.68797504784773</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403674</v>
+        <v>62.25753764403667</v>
       </c>
       <c r="K3" t="n">
-        <v>106.408048068358</v>
+        <v>106.4080480683579</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966501</v>
+        <v>143.0787521966499</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247343</v>
+        <v>166.9661552247341</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302323</v>
+        <v>171.3852525302321</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382926</v>
+        <v>156.7840232382924</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723816</v>
+        <v>125.8330009723814</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338357</v>
+        <v>84.11602876338347</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163476</v>
+        <v>40.91349997163471</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422104</v>
+        <v>12.23994577422103</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945487</v>
+        <v>2.656082683945484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276642</v>
+        <v>0.04335281856276637</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654166</v>
+        <v>0.5524523108654159</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967071</v>
+        <v>4.911803272967066</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584362</v>
+        <v>16.61374767584361</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818495</v>
+        <v>39.0583783781849</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509112</v>
+        <v>64.18491393509105</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448204</v>
+        <v>82.13459174448195</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5994108750216</v>
+        <v>86.5994108750215</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361422</v>
+        <v>84.54027044361412</v>
       </c>
       <c r="O4" t="n">
-        <v>78.0866229939591</v>
+        <v>78.08662299395901</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230454</v>
+        <v>66.81659585230446</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437593</v>
+        <v>46.26034759437588</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400318</v>
+        <v>24.84026481400315</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263665</v>
+        <v>9.627737090263654</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36047805551587</v>
+        <v>2.360478055515868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084094</v>
+        <v>0.0301337624108409</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302141</v>
+        <v>92.5810225130213</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277576</v>
+        <v>260.7194023277574</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592407</v>
+        <v>376.2501472592405</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245391</v>
+        <v>435.4250728245389</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249173</v>
+        <v>427.690910224917</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222136</v>
+        <v>358.2123200222134</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742018</v>
+        <v>267.6709953742016</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564203</v>
+        <v>123.0079925564202</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065776</v>
+        <v>233.0318461065775</v>
       </c>
       <c r="L3" t="n">
-        <v>375.364717720235</v>
+        <v>375.3647177202349</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527159</v>
+        <v>490.5371850527157</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904525</v>
+        <v>519.3859147904524</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705777</v>
+        <v>408.0500980705775</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979885</v>
+        <v>310.3213621979884</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.866739163765147</v>
+        <v>4.866739163764229</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920827</v>
+        <v>41.91542210920819</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047981</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368622</v>
+        <v>126.1832878368621</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228428</v>
+        <v>128.6724428228427</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079987</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719803</v>
+        <v>64.09515511719795</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>654.7059126660156</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35658,13 +35658,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>196.0711932043761</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>404.7279243224438</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485636</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P29" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>274.6024483203573</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>274.6024483203573</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
